--- a/Automation_Order_Cards/aggregated_order_details.xlsx
+++ b/Automation_Order_Cards/aggregated_order_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/10358?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/1402?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/10685?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/14983?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,17 +468,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/110545?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/214841?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/128221?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/218371?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/13397?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/240035?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/13444?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/268317?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,37 +508,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/13699?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/279244?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/13875?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/282800?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/1402?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://tcgplayer.com/product/286521?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/14310?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/455567?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/15428?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/457178?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/162182?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/457252?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/169152?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/478311?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/18205?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/487444?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/191141?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/490536?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,27 +598,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/212696?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/499562?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/212698?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/499750?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/215369?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/519283?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,17 +628,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/218374?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/519303?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/226653?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/5300?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/238609?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/530789?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/238610?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/530800?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/238619?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/531032?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,17 +678,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/239396?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/531207?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/239819?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/531219?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,27 +698,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/240035?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/531246?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/2561?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/70916?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/273612?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/91928?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played|Moderately+Played</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/278888?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/91934?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played|Moderately+Played</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,17 +738,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/296?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/92832?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/33304?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/9407?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/34706?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/106521?irclickid=VGf1XW2k-xyKWHgV6XVKNVrtUkHXsp3RrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=1st+Edition+Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/37075?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://www.tcgplayer.com/product/113744?irclickid=WcpXfu2h3xyKWHgV6XVKNVrtUkHXsPUBrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/39595?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/113745?irclickid=WFFSYY2h3xyKWHgV6XVKNVrtUkHXsPy5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/456576?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/113763?irclickid=XOYUWy2h0xyKWHgV6XVKNVrtUkHXsoV5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/457178?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/113764?irclickid=XQGU%3AQ2h0xyKWHgV6XVKNVrtUkHXsoV1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/457252?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/113771?irclickid=XmARI72h0xyKWHgV6XVKNVrtUkHXsoVhrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/457259?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/453470/pokemon-crown-zenith-crown-zenith-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/457276?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://www.tcgplayer.com/product/477052?irclickid=0XDxNz2hzxyKWHgV6XVKNVrtUkHXsM3VrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/498626?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/477057?irclickid=0krzac2h0xyKWHgV6XVKNVrtUkHXsr1NrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/499750?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/477060?irclickid=SQpTML2h2xyKWHgV6XVKNVrtUkHXsMwFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,37 +858,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/504494?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/477061?irclickid=SETXyl2h2xyKWHgV6XVKNVrtUkHXsMwZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/5379?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/478027?irclickid=xkiSax2hzxyKWHgV6XVKNVrtUkHXsMy9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/539459?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/478067?irclickid=wfxVNx2k6xyKWHgV6XVKNVrtUkHXsu2trRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/5457?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/490074?irclickid=U4eXd12hwxyKWHgV6XVKNVrtUkHXsOSNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/55909?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/534479?irclickid=0JPXVF2hwxyKWHgV6XVKNVrtUkHXsOxZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/5789?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/534494?irclickid=0crRCO2hwxyKWHgV6XVKNVrtUkHXsOx9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/6890?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/534515?irclickid=xDmx602hwxyKWHgV6XVKNVrtUkHXsOz1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/7073?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://www.tcgplayer.com/product/534582?irclickid=2TNWS92hwxyKWHgV6XVKNVrtUkHXsOwlrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/7359?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/534634?irclickid=W9YWRI2hzxyKWHgV6XVKNVrtUkHXsJUVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/92832?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/534694?irclickid=zlRQas2hwxyKWHgV6XVKNVrtUkHXsO3hrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,17 +958,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/101518?irclickid=wjd1SY2h0xyKWHgV6XVKNVrtUkHXsrQprRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/534699?irclickid=Q9PUmc2hzxyKWHgV6XVKNVrtUkHXsJTtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/241768?irclickid=xxg3aN2h0xyKWHgV6XVKNVrtUkHXsryxrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/535110?irclickid=QatQUa2hzxyKWHgV6XVKNVrtUkHXsJTBrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/477052?irclickid=0XDxNz2hzxyKWHgV6XVKNVrtUkHXsM3VrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/535122?irclickid=XBXVCx2hzxyKWHgV6XVKNVrtUkHXsJV9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,20 +988,90 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/478065?irclickid=1V5xIQ2k6xyKWHgV6XVKNVrtUkHXsuzVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/535135?irclickid=xlXUel2hwxyKWHgV6XVKNVrtUkHXsO25rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/478079?irclickid=xnlynv2hzxyKWHgV6XVKNVrtUkHXsMU1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://www.tcgplayer.com/product/535145?irclickid=2Hi1nz2hwxyKWHgV6XVKNVrtUkHXsOwdrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/535153?irclickid=2hbQ5R2hwxyKWHgV6XVKNVrtUkHXsOwFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/535200?irclickid=2Eyxr42hwxyKWHgV6XVKNVrtUkHXsOwJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/535956?irclickid=SRDwzF2hzxyKWHgV6XVKNVrtUkHXsJSVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/538775/pokemon-sv05-temporal-forces-temporal-forces-pokemon-center-elite-trainer-box-exclusive-walking-wake?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/85275?irclickid=wVU1ZZ2k6xyKWHgV6XVKNVrtUkHXsuxprRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/85281?irclickid=wGK2Do2h2xyKWHgV6XVKNVrtUkHXsq2BrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=1st+Edition+Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/88797?irclickid=wj1zr82k6xyKWHgV6XVKNVrtUkHXsuxJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>1</v>
       </c>
     </row>
